--- a/202304/01_基本設計書/03_外部レビュー/20230406/チーム2/基本設計書_基本情報管理(チーム2)修正版.xlsx
+++ b/202304/01_基本設計書/03_外部レビュー/20230406/チーム2/基本設計書_基本情報管理(チーム2)修正版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202304\202304\01_基本設計書\03_外部レビュー\20230406\チーム2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-04\202304\01_基本設計書\03_外部レビュー\20230406\チーム2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BCB730-57C3-4180-B456-921ACA563CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="13875" tabRatio="900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト（社員情報一覧）'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1259,10 +1258,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>BBB</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>メールアドレス、英数符号で最大50桁</t>
     <rPh sb="8" eb="10">
       <t>エイスウ</t>
@@ -1279,10 +1274,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>所属</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>開発一部</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1439,17 +1430,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入社年月日</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>次のページ</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1540,16 +1520,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>※変更不可</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <r>
       <t>氏名漢字</t>
     </r>
@@ -1717,23 +1687,52 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>40行を超えた場合、次のページから表示する</t>
+    <t>検索条件</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社員ID：10桁まで入力</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所属：表から部門IDを選択</t>
+    <rPh sb="3" eb="4">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
       <t>メールアドレス：50桁以内</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で入力可能な文字数</t>
     </r>
     <r>
       <rPr>
@@ -1747,39 +1746,34 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>登録</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
+    <t>入社年月日：YYYY/MM/DD形式で入力</t>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>再修正</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1789,7 +1783,7 @@
     <numFmt numFmtId="181" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="182" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1918,12 +1912,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -1934,14 +1922,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2148,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2319,36 +2299,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2368,17 +2323,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2392,27 +2344,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2445,6 +2404,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2463,16 +2442,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_システム管理" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_種別マスタ" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_設計書記述様式" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="1"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="3"/>
+    <cellStyle name="標準_種別マスタ" xfId="4"/>
+    <cellStyle name="標準_設計書記述様式" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3998,16 +3978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>58271</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>68356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>237124</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>154335</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304359</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4024,8 +4004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7534275" y="6667500"/>
-          <a:ext cx="875299" cy="259110"/>
+          <a:off x="9157447" y="6500532"/>
+          <a:ext cx="873618" cy="254068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,254 +4045,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>154322</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9239250" y="6667500"/>
-          <a:ext cx="866775" cy="259097"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>次の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC88F4-49C5-52AF-A96E-13AF84B9D934}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13738412" y="1596838"/>
-          <a:ext cx="3669925" cy="1036544"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -85755"/>
-            <a:gd name="adj2" fmla="val -58041"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索条件の３つ項目記載漏れ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>263338</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>72837</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852F1A89-5914-FFF7-EE82-713858E2F117}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8875059" y="6544235"/>
-          <a:ext cx="577103" cy="481853"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>16809</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>5602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1116D25-05B2-491F-9CB3-F5576274C876}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8925485" y="6533029"/>
-          <a:ext cx="470647" cy="425824"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4382,7 +4114,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4468,7 +4200,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4554,7 +4286,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4639,16 +4371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>208174</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68678</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112924</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6438</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>124574</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4665,7 +4397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4608724" y="4574003"/>
+          <a:off x="4827799" y="4945478"/>
           <a:ext cx="640300" cy="261610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4710,16 +4442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>181092</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99583</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247767</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>232706</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15129</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299381</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4736,8 +4468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6120210" y="4615554"/>
-          <a:ext cx="645525" cy="240516"/>
+          <a:off x="6219942" y="4938283"/>
+          <a:ext cx="680264" cy="239396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4841,7 +4573,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4927,7 +4659,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5013,7 +4745,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5039,16 +4771,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94690</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>164050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>154525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5065,8 +4797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5200650" y="4610661"/>
-          <a:ext cx="605562" cy="262730"/>
+          <a:off x="4857749" y="5600140"/>
+          <a:ext cx="640301" cy="261610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5110,40 +4842,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>50426</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>16808</xdr:rowOff>
+      <xdr:colOff>151341</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210C2CDE-65E2-9FDD-9330-496D7686F69B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4997824" y="2902324"/>
-          <a:ext cx="694764" cy="493058"/>
+          <a:off x="1400175" y="4533900"/>
+          <a:ext cx="4723341" cy="223118"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -276478"/>
-            <a:gd name="adj2" fmla="val 34091"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5167,136 +4896,38 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>999</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>社員</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>72838</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5602</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AFBEAD-AA1B-4D9C-BF6A-CF84B24E84C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8387603" y="5653368"/>
-          <a:ext cx="918882" cy="493058"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 230781"/>
-            <a:gd name="adj2" fmla="val -59091"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>位置移動</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>はすでに存在しています。画面を閉じて再度お試しください。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>158225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>72838</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1669A37-8675-6960-B5F2-925B0AC92AD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5503431" y="4873391"/>
-          <a:ext cx="2884172" cy="1026506"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6213,19 +5844,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="17" customWidth="1"/>
-    <col min="7" max="32" width="4.1328125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="2" customWidth="1"/>
     <col min="33" max="36" width="4" style="2" customWidth="1"/>
     <col min="37" max="16384" width="9" style="2"/>
   </cols>
@@ -6477,72 +6108,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -6758,80 +6389,80 @@
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="11"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="99" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="109" t="s">
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="99" t="s">
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AE12" s="101"/>
+      <c r="AE12" s="92"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="11"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="104"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="95"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -7132,638 +6763,646 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="90" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90" t="s">
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="90" t="s">
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="92"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="105"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="90">
+      <c r="B24" s="103">
         <v>0.1</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93">
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106">
         <v>45020</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="90" t="s">
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="92"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="105"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="90">
+      <c r="B25" s="103">
         <v>0.2</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106">
         <v>45022</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="92"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="105"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="92"/>
+      <c r="B26" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106">
+        <v>45023</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="105"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="92"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="105"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="92"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="105"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="92"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="105"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="92"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="105"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="92"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="105"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="92"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="105"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="92"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="105"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="92"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="105"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="92"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="105"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="91"/>
-      <c r="AE36" s="92"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="105"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="91"/>
-      <c r="AE37" s="92"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="104"/>
+      <c r="Y37" s="104"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="103"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="105"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="92"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="91"/>
-      <c r="AE38" s="92"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="103"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="105"/>
       <c r="AF38" s="12"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="92"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="103"/>
+      <c r="AD39" s="104"/>
+      <c r="AE39" s="105"/>
       <c r="AF39" s="12"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="91"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="91"/>
-      <c r="AE40" s="92"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="105"/>
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -7802,13 +7441,66 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -7825,66 +7517,13 @@
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7897,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:FU44"/>
   <sheetViews>
@@ -7909,49 +7548,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="17" customWidth="1"/>
-    <col min="7" max="33" width="4.1328125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
     <col min="34" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
     </row>
     <row r="2" spans="1:177" ht="12">
       <c r="A2" s="96" t="s">
@@ -7999,89 +7638,89 @@
       <c r="AG2" s="98"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="90" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="99" t="str">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="str">
         <f>表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="99" t="str">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="90" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="99" t="str">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="90" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="99" t="str">
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90" t="str">
         <f>表紙!AD12</f>
         <v>マ</v>
       </c>
-      <c r="AG3" s="101"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="104"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="95"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="19"/>
@@ -9521,16 +9160,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9544,61 +9183,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F37" sqref="F37:I37"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="17" customWidth="1"/>
-    <col min="7" max="33" width="4.1328125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
     <col min="34" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
     </row>
     <row r="2" spans="1:177" ht="12">
       <c r="A2" s="96" t="s">
@@ -9646,88 +9285,88 @@
       <c r="AG2" s="98"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="90" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="99" t="str">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="str">
         <f>表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="99" t="str">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="90" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="99" t="str">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="90" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="99" t="s">
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="101"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="104"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="95"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="19"/>
@@ -10007,14 +9646,8 @@
       <c r="AE8" s="31"/>
       <c r="AF8" s="31"/>
       <c r="AG8" s="12"/>
-      <c r="AI8" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
@@ -10048,7 +9681,7 @@
       <c r="AF9" s="31"/>
       <c r="AG9" s="12"/>
       <c r="AJ9" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -10060,24 +9693,24 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="S10" s="83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T10" s="77"/>
       <c r="U10" s="77"/>
@@ -10094,7 +9727,7 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="12"/>
       <c r="AJ10" s="2" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
@@ -10125,31 +9758,31 @@
       <c r="AF11" s="31"/>
       <c r="AG11" s="12"/>
       <c r="AJ11" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="130"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
@@ -10170,9 +9803,6 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="12"/>
-      <c r="AJ12" s="2" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="11"/>
@@ -10209,108 +9839,114 @@
       <c r="AF13" s="31"/>
       <c r="AG13" s="12"/>
       <c r="AJ13" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="114" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="114" t="s">
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="114" t="s">
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="120"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="114" t="s">
+      <c r="L14" s="124"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="116"/>
-      <c r="S14" s="114" t="s">
+      <c r="R14" s="125"/>
+      <c r="S14" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="117" t="s">
+      <c r="T14" s="129"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="W14" s="118"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="117" t="s">
+      <c r="W14" s="127"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="114" t="s">
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="121"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="130"/>
       <c r="AF14" s="36"/>
       <c r="AG14" s="62"/>
-      <c r="AJ14" s="2" t="s">
-        <v>137</v>
+      <c r="AK14" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="80" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
       <c r="G15" s="81"/>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="127" t="s">
+      <c r="N15" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="120"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="128"/>
-      <c r="S15" s="127" t="s">
+      <c r="R15" s="119"/>
+      <c r="S15" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="T15" s="131"/>
-      <c r="U15" s="128"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="119"/>
       <c r="V15" s="31" t="s">
         <v>101</v>
       </c>
       <c r="W15" s="31"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z15" s="31"/>
       <c r="AA15" s="34"/>
@@ -10324,8 +9960,8 @@
         <v>15</v>
       </c>
       <c r="AG15" s="62"/>
-      <c r="AJ15" s="2" t="s">
-        <v>159</v>
+      <c r="AK15" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
@@ -10362,6 +9998,9 @@
       <c r="AE16" s="34"/>
       <c r="AF16" s="38"/>
       <c r="AG16" s="62"/>
+      <c r="AK16" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="17" spans="1:37" ht="12.75" customHeight="1">
       <c r="A17" s="11"/>
@@ -10397,6 +10036,9 @@
       <c r="AE17" s="34"/>
       <c r="AF17" s="38"/>
       <c r="AG17" s="62"/>
+      <c r="AK17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:37" ht="12.75" customHeight="1">
       <c r="A18" s="11"/>
@@ -10432,6 +10074,9 @@
       <c r="AE18" s="34"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="62"/>
+      <c r="AK18" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="1:37" ht="12.75" customHeight="1">
       <c r="A19" s="11"/>
@@ -10467,8 +10112,8 @@
       <c r="AE19" s="34"/>
       <c r="AF19" s="38"/>
       <c r="AG19" s="62"/>
-      <c r="AJ19" s="2" t="s">
-        <v>73</v>
+      <c r="AK19" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="12.75" customHeight="1">
@@ -10506,7 +10151,7 @@
       <c r="AF20" s="38"/>
       <c r="AG20" s="62"/>
       <c r="AK20" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="12.75" customHeight="1">
@@ -10543,9 +10188,6 @@
       <c r="AE21" s="34"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="62"/>
-      <c r="AK21" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="22" spans="1:37" ht="12.75" customHeight="1">
       <c r="A22" s="11"/>
@@ -10581,6 +10223,9 @@
       <c r="AE22" s="34"/>
       <c r="AF22" s="38"/>
       <c r="AG22" s="62"/>
+      <c r="AJ22" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
@@ -10616,6 +10261,9 @@
       <c r="AE23" s="34"/>
       <c r="AF23" s="38"/>
       <c r="AG23" s="62"/>
+      <c r="AK23" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
@@ -10651,8 +10299,8 @@
       <c r="AE24" s="34"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="62"/>
-      <c r="AJ24" s="2" t="s">
-        <v>160</v>
+      <c r="AK24" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="12.75" customHeight="1">
@@ -10689,9 +10337,6 @@
       <c r="AE25" s="34"/>
       <c r="AF25" s="38"/>
       <c r="AG25" s="62"/>
-      <c r="AK25" s="2" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="26" spans="1:37" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
@@ -10763,7 +10408,7 @@
       <c r="AF27" s="38"/>
       <c r="AG27" s="62"/>
       <c r="AJ27" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="12.75" customHeight="1">
@@ -10801,7 +10446,7 @@
       <c r="AF28" s="38"/>
       <c r="AG28" s="62"/>
       <c r="AK28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="12.75" customHeight="1">
@@ -10838,9 +10483,6 @@
       <c r="AE29" s="34"/>
       <c r="AF29" s="38"/>
       <c r="AG29" s="62"/>
-      <c r="AK29" s="2" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="30" spans="1:37" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
@@ -10876,8 +10518,8 @@
       <c r="AE30" s="34"/>
       <c r="AF30" s="38"/>
       <c r="AG30" s="62"/>
-      <c r="AK30" s="2" t="s">
-        <v>129</v>
+      <c r="AJ30" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="12.75" customHeight="1">
@@ -10915,7 +10557,7 @@
       <c r="AF31" s="38"/>
       <c r="AG31" s="62"/>
       <c r="AK31" s="2" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="12.75" customHeight="1">
@@ -10953,8 +10595,11 @@
       <c r="AF32" s="38"/>
       <c r="AG32" s="62"/>
       <c r="AI32" s="63"/>
-    </row>
-    <row r="33" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AK32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -10988,11 +10633,11 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="38"/>
       <c r="AG33" s="62"/>
-      <c r="AJ33" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AK33" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31"/>
@@ -11028,10 +10673,10 @@
       <c r="AG34" s="62"/>
       <c r="AI34" s="79"/>
       <c r="AK34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" ht="12.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="32"/>
       <c r="C35" s="31"/>
@@ -11067,7 +10712,7 @@
       <c r="AG35" s="62"/>
       <c r="AI35" s="79"/>
     </row>
-    <row r="36" spans="1:43" ht="12.75" customHeight="1">
+    <row r="36" spans="1:37" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="32"/>
       <c r="C36" s="31"/>
@@ -11101,8 +10746,11 @@
       <c r="AE36" s="34"/>
       <c r="AF36" s="38"/>
       <c r="AG36" s="62"/>
-    </row>
-    <row r="37" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AJ36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="32"/>
       <c r="C37" s="31"/>
@@ -11136,11 +10784,11 @@
       <c r="AE37" s="34"/>
       <c r="AF37" s="38"/>
       <c r="AG37" s="62"/>
-      <c r="AJ37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AK37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="32"/>
       <c r="C38" s="31"/>
@@ -11174,11 +10822,8 @@
       <c r="AE38" s="34"/>
       <c r="AF38" s="38"/>
       <c r="AG38" s="62"/>
-      <c r="AJ38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:37" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="32"/>
       <c r="C39" s="31"/>
@@ -11212,11 +10857,8 @@
       <c r="AE39" s="34"/>
       <c r="AF39" s="38"/>
       <c r="AG39" s="62"/>
-      <c r="AJ39" s="85"/>
-      <c r="AP39" s="79"/>
-      <c r="AQ39" s="79"/>
-    </row>
-    <row r="40" spans="1:43" ht="12.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:37" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="32"/>
       <c r="C40" s="31"/>
@@ -11250,11 +10892,11 @@
       <c r="AE40" s="34"/>
       <c r="AF40" s="38"/>
       <c r="AG40" s="62"/>
-      <c r="AJ40" s="140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AJ40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="12.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="40"/>
       <c r="C41" s="41"/>
@@ -11290,11 +10932,11 @@
         <v>14</v>
       </c>
       <c r="AG41" s="62"/>
-      <c r="AJ41" s="140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" ht="12.75" customHeight="1">
+      <c r="AJ41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="12.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -11329,7 +10971,7 @@
       <c r="AF42" s="31"/>
       <c r="AG42" s="12"/>
     </row>
-    <row r="43" spans="1:43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:37" ht="12.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -11347,7 +10989,7 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="1:43" ht="12.75" customHeight="1">
+    <row r="44" spans="1:37" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -11384,11 +11026,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="A3:F4"/>
@@ -11405,13 +11049,11 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="S15:U15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11454,61 +11096,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:FU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F37" sqref="F37:I37"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="17" customWidth="1"/>
-    <col min="7" max="33" width="4.1328125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="17" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
     <col min="34" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
     </row>
     <row r="2" spans="1:177" ht="12">
       <c r="A2" s="96" t="s">
@@ -11556,88 +11198,88 @@
       <c r="AG2" s="98"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="90" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="99" t="str">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="90" t="str">
         <f>表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="99" t="str">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="90" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="99" t="str">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="90" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="99" t="s">
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="101"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="104"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="95"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="19"/>
@@ -11881,7 +11523,7 @@
       <c r="AF7" s="31"/>
       <c r="AG7" s="12"/>
       <c r="AJ7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
@@ -11916,7 +11558,7 @@
       <c r="AF9" s="31"/>
       <c r="AG9" s="12"/>
       <c r="AJ9" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -11932,26 +11574,23 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="12"/>
       <c r="AJ10" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="31"/>
       <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
-      <c r="R11" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
       <c r="AA11" s="31"/>
@@ -11996,13 +11635,13 @@
       <c r="G13" s="66"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="134"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="133"/>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
       <c r="U13" s="35"/>
@@ -12052,7 +11691,7 @@
       <c r="A15" s="11"/>
       <c r="B15" s="31"/>
       <c r="C15" s="65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -12060,13 +11699,13 @@
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
-      <c r="K15" s="132" t="s">
+      <c r="K15" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="134"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
@@ -12083,7 +11722,7 @@
       <c r="AF15" s="35"/>
       <c r="AG15" s="12"/>
       <c r="AJ15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
@@ -12121,15 +11760,15 @@
       <c r="A17" s="11"/>
       <c r="B17" s="31"/>
       <c r="C17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="134"/>
+        <v>143</v>
+      </c>
+      <c r="K17" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
@@ -12213,7 +11852,7 @@
       <c r="AF19" s="35"/>
       <c r="AG19" s="12"/>
       <c r="AJ19" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="12.75" customHeight="1">
@@ -12259,8 +11898,8 @@
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
-      <c r="K21" s="141" t="s">
-        <v>117</v>
+      <c r="K21" s="139">
+        <v>999</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -12318,7 +11957,7 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="12"/>
       <c r="AJ22" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1">
@@ -12333,13 +11972,13 @@
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
-      <c r="K23" s="132" t="s">
+      <c r="K23" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="134"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="133"/>
       <c r="Q23" s="65"/>
       <c r="R23" s="65"/>
       <c r="S23" s="65"/>
@@ -12435,7 +12074,7 @@
       <c r="AF25" s="35"/>
       <c r="AG25" s="12"/>
       <c r="AJ25" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="12.75" customHeight="1">
@@ -12486,14 +12125,14 @@
       <c r="H27" s="33"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
       <c r="S27" s="33"/>
@@ -12734,7 +12373,7 @@
       <c r="AF33" s="35"/>
       <c r="AG33" s="12"/>
       <c r="AK33" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AQ33" s="79"/>
       <c r="AR33" s="79"/>
@@ -12815,7 +12454,7 @@
       <c r="AE35" s="31"/>
       <c r="AF35" s="35"/>
       <c r="AG35" s="12"/>
-      <c r="AK35" s="63" t="s">
+      <c r="AK35" s="85" t="s">
         <v>87</v>
       </c>
       <c r="AQ35" s="79"/>
@@ -13100,10 +12739,10 @@
       <c r="AE43" s="14"/>
       <c r="AF43" s="14"/>
       <c r="AG43" s="16"/>
-      <c r="AJ43" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK43" s="86" t="s">
+      <c r="AJ43" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK43" s="85" t="s">
         <v>93</v>
       </c>
       <c r="AL43" s="63"/>
@@ -13159,6 +12798,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="K17:O17"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
@@ -13169,15 +12813,10 @@
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="K17:O17"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -13332,22 +12971,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.86328125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="47" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="47" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
@@ -13418,7 +13057,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -13436,7 +13075,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="139"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="49" t="s">
         <v>28</v>
       </c>
@@ -13480,7 +13119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25">
+    <row r="13" spans="1:6" ht="40.5">
       <c r="A13" s="49" t="s">
         <v>36</v>
       </c>
@@ -13498,7 +13137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25">
+    <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="49" t="s">
         <v>39</v>
       </c>
